--- a/output/0/tRNA-Ile-AAT-5-4.xlsx
+++ b/output/0/tRNA-Ile-AAT-5-4.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="68">
   <si>
     <t>chr14</t>
   </si>
   <si>
-    <t>102783173</t>
-  </si>
-  <si>
-    <t>102783196</t>
+    <t>102783430</t>
+  </si>
+  <si>
+    <t>102783453</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>102783176</t>
+    <t>102783433</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,187 +38,145 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>AAATGCAAATTGCACATGGG</t>
+    <t>CTCTAACCAACTGAGCTAAC</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>63% (54)</t>
+  </si>
+  <si>
+    <t>41% (41)</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>102783435</t>
+  </si>
+  <si>
+    <t>102783458</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>102783455</t>
+  </si>
+  <si>
+    <t>TAGCTCAGTTGGTTAGAGCG</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>89% (63)</t>
+  </si>
+  <si>
+    <t>80% (61)</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>102783452</t>
+  </si>
+  <si>
+    <t>102783475</t>
+  </si>
+  <si>
+    <t>102783472</t>
+  </si>
+  <si>
+    <t>GCGTGGTGCTAATAACGCCA</t>
   </si>
   <si>
     <t>AGG</t>
   </si>
   <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>84% (61)</t>
-  </si>
-  <si>
-    <t>48% (44)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>102783424</t>
-  </si>
-  <si>
-    <t>102783447</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>102783444</t>
-  </si>
-  <si>
-    <t>AGGCGGCCGGTTAGCTCAGT</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>46% (49)</t>
+    <t>96% (68)</t>
+  </si>
+  <si>
+    <t>35% (38)</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>102783481</t>
+  </si>
+  <si>
+    <t>102783478</t>
+  </si>
+  <si>
+    <t>TGCTAATAACGCCAAGGTCG</t>
+  </si>
+  <si>
+    <t>38% (46)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>102783459</t>
+  </si>
+  <si>
+    <t>102783482</t>
+  </si>
+  <si>
+    <t>102783479</t>
+  </si>
+  <si>
+    <t>GCTAATAACGCCAAGGTCGC</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>43% (48)</t>
+  </si>
+  <si>
+    <t>31% (36)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>102783469</t>
+  </si>
+  <si>
+    <t>102783492</t>
+  </si>
+  <si>
+    <t>GGGGATCGAACCCGCGACCT</t>
+  </si>
+  <si>
+    <t>40% (47)</t>
   </si>
   <si>
     <t>89% (68)</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>102783430</t>
-  </si>
-  <si>
-    <t>102783453</t>
-  </si>
-  <si>
-    <t>102783433</t>
-  </si>
-  <si>
-    <t>CTCTAACCAACTGAGCTAAC</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>63% (54)</t>
-  </si>
-  <si>
-    <t>41% (41)</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>102783435</t>
-  </si>
-  <si>
-    <t>102783458</t>
-  </si>
-  <si>
-    <t>102783455</t>
-  </si>
-  <si>
-    <t>TAGCTCAGTTGGTTAGAGCG</t>
-  </si>
-  <si>
-    <t>89% (63)</t>
-  </si>
-  <si>
-    <t>80% (61)</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>102783452</t>
-  </si>
-  <si>
-    <t>102783475</t>
-  </si>
-  <si>
-    <t>102783472</t>
-  </si>
-  <si>
-    <t>GCGTGGTGCTAATAACGCCA</t>
-  </si>
-  <si>
-    <t>96% (68)</t>
-  </si>
-  <si>
-    <t>35% (38)</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>102783481</t>
-  </si>
-  <si>
-    <t>102783478</t>
-  </si>
-  <si>
-    <t>TGCTAATAACGCCAAGGTCG</t>
-  </si>
-  <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>102783459</t>
-  </si>
-  <si>
-    <t>102783482</t>
-  </si>
-  <si>
-    <t>102783479</t>
-  </si>
-  <si>
-    <t>GCTAATAACGCCAAGGTCGC</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>43% (48)</t>
-  </si>
-  <si>
-    <t>31% (36)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>102783469</t>
-  </si>
-  <si>
-    <t>102783492</t>
-  </si>
-  <si>
-    <t>GGGGATCGAACCCGCGACCT</t>
-  </si>
-  <si>
-    <t>40% (47)</t>
   </si>
   <si>
     <t>102783498</t>
@@ -302,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -417,7 +375,7 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -431,19 +389,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -458,25 +416,25 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -490,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -502,10 +460,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -517,25 +475,25 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
         <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>34</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -549,10 +507,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -561,10 +519,10 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
         <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -576,25 +534,25 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
         <v>46</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>47</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>48</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>49</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -608,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -617,13 +575,13 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -635,25 +593,25 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
         <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>47</v>
       </c>
       <c r="P6" t="s">
         <v>54</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -667,10 +625,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -679,10 +637,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
         <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -694,25 +652,25 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q7" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="R7" t="s">
         <v>15</v>
@@ -726,22 +684,22 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -753,148 +711,30 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="R8" t="s">
         <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>81</v>
-      </c>
-      <c r="R10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" t="s">
         <v>3</v>
       </c>
     </row>
